--- a/2022_forecast/text/model_averaging/model_summary_table_test.xlsx
+++ b/2022_forecast/text/model_averaging/model_summary_table_test.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\preseason_SEAK_pink_salmon_forecast\2022_forecast\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\preseason_SEAK_pink_salmon_forecast\2022_forecast\text\model_averaging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F1A4D27-AAA1-4EC4-83FB-7C6023E646D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD095DE3-0314-4AC5-8281-8442CA9AE135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model_summary_table_test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>NA</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -185,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -284,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>terms</t>
   </si>
@@ -470,12 +481,6 @@
   </si>
   <si>
     <t>m25</t>
-  </si>
-  <si>
-    <t>CPUE + SEAK_SST_AMJJ</t>
-  </si>
-  <si>
-    <t>m26</t>
   </si>
   <si>
     <t>fit_bias_corrected</t>
@@ -526,7 +531,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1042,7 +1047,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1060,6 +1065,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1414,11 +1420,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V39" sqref="V39"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P12" activeCellId="2" sqref="P20 P16 P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,29 +1445,29 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="K1" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L1" s="5"/>
       <c r="N1" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="R1" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
       <c r="X1" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Y1" s="6"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1491,13 +1497,13 @@
         <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N2" t="s">
         <v>10</v>
@@ -1509,40 +1515,40 @@
         <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R2" t="s">
         <v>9</v>
       </c>
       <c r="S2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" t="s">
         <v>66</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -1574,80 +1580,80 @@
         <v>21</v>
       </c>
       <c r="J3">
-        <f>D3*SQRT(I3+1)</f>
+        <f t="shared" ref="J3:J27" si="0">D3*SQRT(I3+1)</f>
         <v>0.44125196358416779</v>
       </c>
       <c r="K3">
-        <f>C3+(1.28*J3)</f>
+        <f t="shared" ref="K3:K27" si="1">C3+(1.28*J3)</f>
         <v>3.7945159008908749</v>
       </c>
       <c r="L3">
-        <f>C3-(1.28*J3)</f>
+        <f t="shared" ref="L3:L27" si="2">C3-(1.28*J3)</f>
         <v>2.6649108741154053</v>
       </c>
       <c r="M3">
-        <f>C3+((H3*H3)/2)</f>
+        <f t="shared" ref="M3:M27" si="3">C3+((H3*H3)/2)</f>
         <v>3.3166578875031401</v>
       </c>
       <c r="N3">
-        <f>G3-MIN($G$3:$G$28)</f>
+        <f>G3-MIN($G$3:$G$27)</f>
         <v>23.742360661240539</v>
       </c>
       <c r="O3">
         <f>EXP(-0.5*N3)</f>
         <v>6.9889492799557901E-6</v>
       </c>
-      <c r="P3">
-        <f>O3/SUM($O$3:$O$28)</f>
-        <v>2.6222077807647593E-6</v>
+      <c r="P3" s="7">
+        <f>O3/SUM($O$3:$O$27)</f>
+        <v>2.4167057530188457E-6</v>
       </c>
       <c r="Q3" cm="1">
-        <f t="array" ref="Q3">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q3">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R3">
-        <f>J3*J3</f>
+        <f t="shared" ref="R3:R27" si="4">J3*J3</f>
         <v>0.19470329536688374</v>
       </c>
       <c r="S3">
         <f>R3+((M3-Q3)^2)</f>
-        <v>0.36591274163053861</v>
+        <v>0.34120458658378716</v>
       </c>
       <c r="T3">
         <f>SQRT(S3)*P3</f>
-        <v>1.586192412037525E-6</v>
+        <v>1.4116635663978727E-6</v>
       </c>
       <c r="U3" s="1">
-        <f>SUM($T$3:$T$28)</f>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V3" s="3">
         <f>U3^2</f>
-        <v>0.14342896406613534</v>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W3" s="2">
         <f>SQRT(V3)</f>
-        <v>0.37872016590899321</v>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X3" s="2">
         <f>Q3-1.28*W3</f>
-        <v>2.4181214429258415</v>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y3" s="2">
         <f>Q3+1.28*W3</f>
-        <v>3.3876450676528642</v>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z3" s="4">
         <f>EXP(Q3)</f>
-        <v>18.226621685162741</v>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA3" s="4">
         <f>EXP(X3)</f>
-        <v>11.224753157078837</v>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB3" s="4">
         <f>EXP(Y3)</f>
-        <v>29.596173154555135</v>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -1679,80 +1685,80 @@
         <v>20</v>
       </c>
       <c r="J4">
-        <f>D4*SQRT(I4+1)</f>
+        <f t="shared" si="0"/>
         <v>0.34150427815166801</v>
       </c>
       <c r="K4">
-        <f>C4+(1.28*J4)</f>
+        <f t="shared" si="1"/>
         <v>3.5659440351214351</v>
       </c>
       <c r="L4">
-        <f>C4-(1.28*J4)</f>
+        <f t="shared" si="2"/>
         <v>2.6916930830531647</v>
       </c>
       <c r="M4">
-        <f>C4+((H4*H4)/2)</f>
+        <f t="shared" si="3"/>
         <v>3.1774905590872997</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N28" si="0">G4-MIN($G$3:$G$28)</f>
+        <f>G4-MIN($G$3:$G$27)</f>
         <v>12.301886331491339</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O28" si="1">EXP(-0.5*N4)</f>
+        <f t="shared" ref="O4:O27" si="5">EXP(-0.5*N4)</f>
         <v>2.1314704917466897E-3</v>
       </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P28" si="2">O4/SUM($O$3:$O$28)</f>
-        <v>7.9971370288210372E-4</v>
+      <c r="P4" s="7">
+        <f>O4/SUM($O$3:$O$27)</f>
+        <v>7.3704026076817052E-4</v>
       </c>
       <c r="Q4" cm="1">
-        <f t="array" ref="Q4">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q4">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R4">
-        <f>J4*J4</f>
+        <f t="shared" si="4"/>
         <v>0.11662517199589183</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S28" si="3">R4+((M4-Q4)^2)</f>
-        <v>0.19203434329506969</v>
+        <f t="shared" ref="S4:S27" si="6">R4+((M4-Q4)^2)</f>
+        <v>0.17596006286160079</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T28" si="4">SQRT(S4)*P4</f>
-        <v>3.5044832606634499E-4</v>
+        <f t="shared" ref="T4:T27" si="7">SQRT(S4)*P4</f>
+        <v>3.0917065499359598E-4</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" ref="U4:U28" si="5">SUM($T$3:$T$28)</f>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V4" s="3">
-        <f t="shared" ref="V4:V28" si="6">U4^2</f>
-        <v>0.14342896406613534</v>
+        <f t="shared" ref="V4:V27" si="8">U4^2</f>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W4" s="2">
-        <f t="shared" ref="W4:W28" si="7">SQRT(V4)</f>
-        <v>0.37872016590899321</v>
+        <f t="shared" ref="W4:W27" si="9">SQRT(V4)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" ref="X4:X28" si="8">Q4-1.28*W4</f>
-        <v>2.4181214429258415</v>
+        <f t="shared" ref="X4:X27" si="10">Q4-1.28*W4</f>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y4" s="2">
-        <f t="shared" ref="Y4:Y28" si="9">Q4+1.28*W4</f>
-        <v>3.3876450676528642</v>
+        <f t="shared" ref="Y4:Y27" si="11">Q4+1.28*W4</f>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z4" s="4">
-        <f t="shared" ref="Z4:Z28" si="10">EXP(Q4)</f>
-        <v>18.226621685162741</v>
+        <f t="shared" ref="Z4:Z27" si="12">EXP(Q4)</f>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA4" s="4">
-        <f t="shared" ref="AA4:AA28" si="11">EXP(X4)</f>
-        <v>11.224753157078837</v>
+        <f t="shared" ref="AA4:AA27" si="13">EXP(X4)</f>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB4" s="4">
-        <f t="shared" ref="AB4:AB28" si="12">EXP(Y4)</f>
-        <v>29.596173154555135</v>
+        <f t="shared" ref="AB4:AB27" si="14">EXP(Y4)</f>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -1784,80 +1790,80 @@
         <v>20</v>
       </c>
       <c r="J5">
-        <f>D5*SQRT(I5+1)</f>
+        <f t="shared" si="0"/>
         <v>0.33420297662982512</v>
       </c>
       <c r="K5">
-        <f>C5+(1.28*J5)</f>
+        <f t="shared" si="1"/>
         <v>3.542785093177796</v>
       </c>
       <c r="L5">
-        <f>C5-(1.28*J5)</f>
+        <f t="shared" si="2"/>
         <v>2.6872254730054439</v>
       </c>
       <c r="M5">
-        <f>C5+((H5*H5)/2)</f>
+        <f t="shared" si="3"/>
         <v>3.1609097830916197</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f>G5-MIN($G$3:$G$27)</f>
         <v>10.81458209814074</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.48377008745758E-3</v>
       </c>
-      <c r="P5">
-        <f t="shared" si="2"/>
-        <v>1.6822810324595638E-3</v>
+      <c r="P5" s="7">
+        <f>O5/SUM($O$3:$O$27)</f>
+        <v>1.5504409220209838E-3</v>
       </c>
       <c r="Q5" cm="1">
-        <f t="array" ref="Q5">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q5">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R5">
-        <f>J5*J5</f>
+        <f t="shared" si="4"/>
         <v>0.11169162958823543</v>
       </c>
       <c r="S5">
-        <f t="shared" si="3"/>
-        <v>0.17826931863792944</v>
+        <f t="shared" si="6"/>
+        <v>0.16322370163119432</v>
       </c>
       <c r="T5">
-        <f t="shared" si="4"/>
-        <v>7.1029188120259672E-4</v>
+        <f t="shared" si="7"/>
+        <v>6.2639291069364325E-4</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V5" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W5" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X5" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y5" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z5" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA5" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB5" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -1889,80 +1895,80 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <f>D6*SQRT(I6+1)</f>
+        <f t="shared" si="0"/>
         <v>0.32744497191082128</v>
       </c>
       <c r="K6">
-        <f>C6+(1.28*J6)</f>
+        <f t="shared" si="1"/>
         <v>3.5359494780545013</v>
       </c>
       <c r="L6">
-        <f>C6-(1.28*J6)</f>
+        <f t="shared" si="2"/>
         <v>2.6976903499627989</v>
       </c>
       <c r="M6">
-        <f>C6+((H6*H6)/2)</f>
+        <f t="shared" si="3"/>
         <v>3.1612219140086499</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f>G6-MIN($G$3:$G$27)</f>
         <v>10.053043051978939</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6.5615952581762364E-3</v>
       </c>
-      <c r="P6">
-        <f t="shared" si="2"/>
-        <v>2.4618673638918888E-3</v>
+      <c r="P6" s="7">
+        <f>O6/SUM($O$3:$O$27)</f>
+        <v>2.2689311904000534E-3</v>
       </c>
       <c r="Q6" cm="1">
-        <f t="array" ref="Q6">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q6">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R6">
-        <f>J6*J6</f>
+        <f t="shared" si="4"/>
         <v>0.10722020962967854</v>
       </c>
       <c r="S6">
-        <f t="shared" si="3"/>
-        <v>0.17395907221856399</v>
+        <f t="shared" si="6"/>
+        <v>0.15889409075875469</v>
       </c>
       <c r="T6">
-        <f t="shared" si="4"/>
-        <v>1.0268055146428203E-3</v>
+        <f t="shared" si="7"/>
+        <v>9.0443049749541174E-4</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V6" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W6" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X6" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y6" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z6" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA6" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB6" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -1994,80 +2000,80 @@
         <v>20</v>
       </c>
       <c r="J7">
-        <f>D7*SQRT(I7+1)</f>
+        <f t="shared" si="0"/>
         <v>0.31591041767605743</v>
       </c>
       <c r="K7">
-        <f>C7+(1.28*J7)</f>
+        <f t="shared" si="1"/>
         <v>3.5392573311759836</v>
       </c>
       <c r="L7">
-        <f>C7-(1.28*J7)</f>
+        <f t="shared" si="2"/>
         <v>2.7305266619252766</v>
       </c>
       <c r="M7">
-        <f>C7+((H7*H7)/2)</f>
+        <f t="shared" si="3"/>
         <v>3.1778164965506299</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f>G7-MIN($G$3:$G$27)</f>
         <v>9.2735399760488413</v>
       </c>
       <c r="O7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.6889425400873176E-3</v>
       </c>
-      <c r="P7">
-        <f t="shared" si="2"/>
-        <v>3.6352274853195597E-3</v>
+      <c r="P7" s="7">
+        <f>O7/SUM($O$3:$O$27)</f>
+        <v>3.3503352563242763E-3</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q7">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R7">
-        <f>J7*J7</f>
+        <f t="shared" si="4"/>
         <v>9.9799391996261061E-2</v>
       </c>
       <c r="S7">
-        <f t="shared" si="3"/>
-        <v>0.17538767914669262</v>
+        <f t="shared" si="6"/>
+        <v>0.15929317770860865</v>
       </c>
       <c r="T7">
-        <f t="shared" si="4"/>
-        <v>1.5224082682440876E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.3371707115555659E-3</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V7" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W7" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X7" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y7" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z7" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA7" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB7" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -2099,80 +2105,80 @@
         <v>20</v>
       </c>
       <c r="J8">
-        <f>D8*SQRT(I8+1)</f>
+        <f t="shared" si="0"/>
         <v>0.40120834863524285</v>
       </c>
       <c r="K8">
-        <f>C8+(1.28*J8)</f>
+        <f t="shared" si="1"/>
         <v>3.907320519914931</v>
       </c>
       <c r="L8">
-        <f>C8-(1.28*J8)</f>
+        <f t="shared" si="2"/>
         <v>2.8802271474087089</v>
       </c>
       <c r="M8">
-        <f>C8+((H8*H8)/2)</f>
+        <f t="shared" si="3"/>
         <v>3.4488858336618198</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f>G8-MIN($G$3:$G$27)</f>
         <v>15.104647831879937</v>
       </c>
       <c r="O8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5.2488891095693558E-4</v>
       </c>
-      <c r="P8">
-        <f t="shared" si="2"/>
-        <v>1.9693486548769514E-4</v>
+      <c r="P8" s="7">
+        <f>O8/SUM($O$3:$O$27)</f>
+        <v>1.8150110982254075E-4</v>
       </c>
       <c r="Q8" cm="1">
-        <f t="array" ref="Q8">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q8">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R8">
-        <f>J8*J8</f>
+        <f t="shared" si="4"/>
         <v>0.16096813901461857</v>
       </c>
       <c r="S8">
-        <f t="shared" si="3"/>
-        <v>0.4590869546040004</v>
+        <f t="shared" si="6"/>
+        <v>0.42617544090618242</v>
       </c>
       <c r="T8">
-        <f t="shared" si="4"/>
-        <v>1.3343510040981387E-4</v>
+        <f t="shared" si="7"/>
+        <v>1.1848776143608152E-4</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V8" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W8" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X8" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y8" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z8" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA8" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB8" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -2204,80 +2210,80 @@
         <v>20</v>
       </c>
       <c r="J9">
-        <f>D9*SQRT(I9+1)</f>
+        <f t="shared" si="0"/>
         <v>0.34969287556124179</v>
       </c>
       <c r="K9">
-        <f>C9+(1.28*J9)</f>
+        <f t="shared" si="1"/>
         <v>3.8152751867117498</v>
       </c>
       <c r="L9">
-        <f>C9-(1.28*J9)</f>
+        <f t="shared" si="2"/>
         <v>2.9200614252749704</v>
       </c>
       <c r="M9">
-        <f>C9+((H9*H9)/2)</f>
+        <f t="shared" si="3"/>
         <v>3.4147928059933599</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f>G9-MIN($G$3:$G$27)</f>
         <v>11.528817413026438</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.137249850857139E-3</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="2"/>
-        <v>1.1770755001347941E-3</v>
+      <c r="P9" s="7">
+        <f>O9/SUM($O$3:$O$27)</f>
+        <v>1.0848282709632032E-3</v>
       </c>
       <c r="Q9" cm="1">
-        <f t="array" ref="Q9">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q9">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R9">
-        <f>J9*J9</f>
+        <f t="shared" si="4"/>
         <v>0.12228510721829014</v>
       </c>
       <c r="S9">
-        <f t="shared" si="3"/>
-        <v>0.38433649532026848</v>
+        <f t="shared" si="6"/>
+        <v>0.35354009678221776</v>
       </c>
       <c r="T9">
-        <f t="shared" si="4"/>
-        <v>7.2972652549472942E-4</v>
+        <f t="shared" si="7"/>
+        <v>6.4503062208938608E-4</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V9" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W9" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X9" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y9" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z9" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA9" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB9" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -2309,80 +2315,80 @@
         <v>20</v>
       </c>
       <c r="J10">
-        <f>D10*SQRT(I10+1)</f>
+        <f t="shared" si="0"/>
         <v>0.31324881871428994</v>
       </c>
       <c r="K10">
-        <f>C10+(1.28*J10)</f>
+        <f t="shared" si="1"/>
         <v>3.7333405292409108</v>
       </c>
       <c r="L10">
-        <f>C10-(1.28*J10)</f>
+        <f t="shared" si="2"/>
         <v>2.931423553332329</v>
       </c>
       <c r="M10">
-        <f>C10+((H10*H10)/2)</f>
+        <f t="shared" si="3"/>
         <v>3.37385404128662</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f>G10-MIN($G$3:$G$27)</f>
         <v>8.6101786608171409</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.3499679556047152E-2</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="2"/>
-        <v>5.0649909380830012E-3</v>
+      <c r="P10" s="7">
+        <f>O10/SUM($O$3:$O$27)</f>
+        <v>4.6680483632321372E-3</v>
       </c>
       <c r="Q10" cm="1">
-        <f t="array" ref="Q10">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q10">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R10">
-        <f>J10*J10</f>
+        <f t="shared" si="4"/>
         <v>9.8124822425898081E-2</v>
       </c>
       <c r="S10">
-        <f t="shared" si="3"/>
-        <v>0.31993830368878168</v>
+        <f t="shared" si="6"/>
+        <v>0.29168172656804314</v>
       </c>
       <c r="T10">
-        <f t="shared" si="4"/>
-        <v>2.8649153320002342E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.5210993354462647E-3</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V10" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W10" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X10" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y10" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z10" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA10" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB10" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -2414,80 +2420,80 @@
         <v>20</v>
       </c>
       <c r="J11">
-        <f>D11*SQRT(I11+1)</f>
+        <f t="shared" si="0"/>
         <v>0.29121253350943116</v>
       </c>
       <c r="K11">
-        <f>C11+(1.28*J11)</f>
+        <f t="shared" si="1"/>
         <v>3.6771212949655219</v>
       </c>
       <c r="L11">
-        <f>C11-(1.28*J11)</f>
+        <f t="shared" si="2"/>
         <v>2.9316172091813781</v>
       </c>
       <c r="M11">
-        <f>C11+((H11*H11)/2)</f>
+        <f t="shared" si="3"/>
         <v>3.3421817520734498</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f>G11-MIN($G$3:$G$27)</f>
         <v>6.3865039495373397</v>
       </c>
       <c r="O11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.1038198521062851E-2</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="2"/>
-        <v>1.5397262043255314E-2</v>
+      <c r="P11" s="7">
+        <f>O11/SUM($O$3:$O$27)</f>
+        <v>1.4190580942377283E-2</v>
       </c>
       <c r="Q11" cm="1">
-        <f t="array" ref="Q11">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q11">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R11">
-        <f>J11*J11</f>
+        <f t="shared" si="4"/>
         <v>8.4804739672981563E-2</v>
       </c>
       <c r="S11">
-        <f t="shared" si="3"/>
-        <v>0.27778790894974881</v>
+        <f t="shared" si="6"/>
+        <v>0.25149626553072668</v>
       </c>
       <c r="T11">
-        <f t="shared" si="4"/>
-        <v>8.1152176171402548E-3</v>
+        <f t="shared" si="7"/>
+        <v>7.1164916730101736E-3</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V11" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W11" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X11" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y11" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z11" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA11" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB11" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -2498,101 +2504,101 @@
         <v>31</v>
       </c>
       <c r="C12">
-        <v>3.1079430365415299</v>
+        <v>2.9161712315599502</v>
       </c>
       <c r="D12">
-        <v>7.3160953695371705E-2</v>
+        <v>7.2337457856782597E-2</v>
       </c>
       <c r="E12">
-        <v>2.6970411090697501</v>
+        <v>2.5830799600927601</v>
       </c>
       <c r="F12">
-        <v>3.5188449640133102</v>
+        <v>3.24926250302713</v>
       </c>
       <c r="G12">
-        <v>17.0918437602956</v>
+        <v>6.7635297915377199</v>
       </c>
       <c r="H12">
-        <v>0.30099999999999999</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="I12">
         <v>20</v>
       </c>
       <c r="J12">
-        <f>D12*SQRT(I12+1)</f>
-        <v>0.33526560822419998</v>
+        <f t="shared" si="0"/>
+        <v>0.33149187620938431</v>
       </c>
       <c r="K12">
-        <f>C12+(1.28*J12)</f>
-        <v>3.537083015068506</v>
+        <f t="shared" si="1"/>
+        <v>3.3404808331079621</v>
       </c>
       <c r="L12">
-        <f>C12-(1.28*J12)</f>
-        <v>2.6788030580145539</v>
+        <f t="shared" si="2"/>
+        <v>2.4918616300119383</v>
       </c>
       <c r="M12">
-        <f>C12+((H12*H12)/2)</f>
-        <v>3.1532435365415301</v>
+        <f t="shared" si="3"/>
+        <v>2.94521173155995</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
-        <v>10.626367819168038</v>
+        <f>G12-MIN($G$3:$G$27)</f>
+        <v>0.29805385041015953</v>
       </c>
       <c r="O12">
-        <f t="shared" si="1"/>
-        <v>4.9262170921246327E-3</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="2"/>
-        <v>1.8482842371961342E-3</v>
+        <f t="shared" si="5"/>
+        <v>0.86154591728615082</v>
+      </c>
+      <c r="P12" s="7">
+        <f>O12/SUM($O$3:$O$27)</f>
+        <v>0.29791359064041023</v>
       </c>
       <c r="Q12" cm="1">
-        <f t="array" ref="Q12">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q12">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R12">
-        <f>J12*J12</f>
-        <v>0.11240302805794275</v>
+        <f t="shared" si="4"/>
+        <v>0.10988686399281777</v>
       </c>
       <c r="S12">
-        <f t="shared" si="3"/>
-        <v>0.17508329848661203</v>
+        <f t="shared" si="6"/>
+        <v>0.11001475102736025</v>
       </c>
       <c r="T12">
-        <f t="shared" si="4"/>
-        <v>7.7337676411102997E-4</v>
+        <f t="shared" si="7"/>
+        <v>9.8813384793635439E-2</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V12" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W12" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X12" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z12" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA12" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB12" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -2603,101 +2609,101 @@
         <v>33</v>
       </c>
       <c r="C13">
-        <v>3.3938234269178098</v>
+        <v>3.1123525597226598</v>
       </c>
       <c r="D13">
-        <v>9.3602664166943697E-2</v>
+        <v>7.4983630303387297E-2</v>
       </c>
       <c r="E13">
-        <v>2.9170792801091099</v>
+        <v>2.6906819929111698</v>
       </c>
       <c r="F13">
-        <v>3.8705675737265</v>
+        <v>3.53402312653416</v>
       </c>
       <c r="G13">
-        <v>23.633814113455699</v>
+        <v>18.2852725382097</v>
       </c>
       <c r="H13">
-        <v>0.34699999999999998</v>
+        <v>0.309</v>
       </c>
       <c r="I13">
         <v>20</v>
       </c>
       <c r="J13">
-        <f>D13*SQRT(I13+1)</f>
-        <v>0.42894129379455009</v>
+        <f t="shared" si="0"/>
+        <v>0.34361816174785681</v>
       </c>
       <c r="K13">
-        <f>C13+(1.28*J13)</f>
-        <v>3.942868282974834</v>
+        <f t="shared" si="1"/>
+        <v>3.5521838067599165</v>
       </c>
       <c r="L13">
-        <f>C13-(1.28*J13)</f>
-        <v>2.8447785708607856</v>
+        <f t="shared" si="2"/>
+        <v>2.672521312685403</v>
       </c>
       <c r="M13">
-        <f>C13+((H13*H13)/2)</f>
-        <v>3.45402792691781</v>
+        <f t="shared" si="3"/>
+        <v>3.16009305972266</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
-        <v>17.168338172328138</v>
+        <f>G13-MIN($G$3:$G$27)</f>
+        <v>11.819796597082139</v>
       </c>
       <c r="O13">
-        <f t="shared" si="1"/>
-        <v>1.8704354894492751E-4</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="2"/>
-        <v>7.0177508769722467E-5</v>
+        <f t="shared" si="5"/>
+        <v>2.7124627347767868E-3</v>
+      </c>
+      <c r="P13" s="7">
+        <f>O13/SUM($O$3:$O$27)</f>
+        <v>9.3794131755750251E-4</v>
       </c>
       <c r="Q13" cm="1">
-        <f t="array" ref="Q13">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q13">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R13">
-        <f>J13*J13</f>
-        <v>0.18399063352214254</v>
+        <f t="shared" si="4"/>
+        <v>0.11807344108297628</v>
       </c>
       <c r="S13">
-        <f t="shared" si="3"/>
-        <v>0.4877510825865824</v>
+        <f t="shared" si="6"/>
+        <v>0.16923537670074928</v>
       </c>
       <c r="T13">
-        <f t="shared" si="4"/>
-        <v>4.9011395477423754E-5</v>
+        <f t="shared" si="7"/>
+        <v>3.8585243362219035E-4</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V13" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z13" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA13" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB13" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -2708,101 +2714,101 @@
         <v>35</v>
       </c>
       <c r="C14">
-        <v>3.11632917464429</v>
+        <v>3.0953152053127302</v>
       </c>
       <c r="D14">
-        <v>7.4428828294670402E-2</v>
+        <v>6.4381000651337894E-2</v>
       </c>
       <c r="E14">
-        <v>2.6958526976672599</v>
+        <v>2.7336391842541898</v>
       </c>
       <c r="F14">
-        <v>3.53680565162131</v>
+        <v>3.4569912263712701</v>
       </c>
       <c r="G14">
-        <v>18.167183625164501</v>
+        <v>11.2226246534861</v>
       </c>
       <c r="H14">
-        <v>0.308</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="I14">
         <v>20</v>
       </c>
       <c r="J14">
-        <f>D14*SQRT(I14+1)</f>
-        <v>0.34107573954719811</v>
+        <f t="shared" si="0"/>
+        <v>0.29503080880175714</v>
       </c>
       <c r="K14">
-        <f>C14+(1.28*J14)</f>
-        <v>3.5529061212647037</v>
+        <f t="shared" si="1"/>
+        <v>3.4729546405789793</v>
       </c>
       <c r="L14">
-        <f>C14-(1.28*J14)</f>
-        <v>2.6797522280238764</v>
+        <f t="shared" si="2"/>
+        <v>2.7176757700464811</v>
       </c>
       <c r="M14">
-        <f>C14+((H14*H14)/2)</f>
-        <v>3.1637611746442902</v>
+        <f t="shared" si="3"/>
+        <v>3.1304277053127301</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
-        <v>11.70170768403694</v>
+        <f>G14-MIN($G$3:$G$27)</f>
+        <v>4.7571487123585401</v>
       </c>
       <c r="O14">
-        <f t="shared" si="1"/>
-        <v>2.8774412286691471E-3</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="2"/>
-        <v>1.0795970146970754E-3</v>
+        <f t="shared" si="5"/>
+        <v>9.268261576667447E-2</v>
+      </c>
+      <c r="P14" s="7">
+        <f>O14/SUM($O$3:$O$27)</f>
+        <v>3.2048681676736142E-2</v>
       </c>
       <c r="Q14" cm="1">
-        <f t="array" ref="Q14">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q14">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R14">
-        <f>J14*J14</f>
-        <v>0.11633266010766811</v>
+        <f t="shared" si="4"/>
+        <v>8.7043178142218972E-2</v>
       </c>
       <c r="S14">
-        <f t="shared" si="3"/>
-        <v>0.18438994891462929</v>
+        <f t="shared" si="6"/>
+        <v>0.1256651314244927</v>
       </c>
       <c r="T14">
-        <f t="shared" si="4"/>
-        <v>4.6358598387923706E-4</v>
+        <f t="shared" si="7"/>
+        <v>1.1361026278849383E-2</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V14" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W14" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X14" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y14" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z14" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA14" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB14" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -2813,101 +2819,101 @@
         <v>37</v>
       </c>
       <c r="C15">
-        <v>2.9221357736079998</v>
+        <v>3.1354340564544199</v>
       </c>
       <c r="D15">
-        <v>7.2563965021311502E-2</v>
+        <v>6.7650767483517504E-2</v>
       </c>
       <c r="E15">
-        <v>2.5860407298247901</v>
+        <v>2.7439036246322601</v>
       </c>
       <c r="F15">
-        <v>3.2582308173911998</v>
+        <v>3.52696448827658</v>
       </c>
       <c r="G15">
-        <v>7.2006491332922398</v>
+        <v>14.9493211426797</v>
       </c>
       <c r="H15">
-        <v>0.24299999999999999</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="I15">
         <v>20</v>
       </c>
       <c r="J15">
-        <f>D15*SQRT(I15+1)</f>
-        <v>0.33252986243628779</v>
+        <f t="shared" si="0"/>
+        <v>0.31001476281507617</v>
       </c>
       <c r="K15">
-        <f>C15+(1.28*J15)</f>
-        <v>3.3477739975264482</v>
+        <f t="shared" si="1"/>
+        <v>3.5322529528577173</v>
       </c>
       <c r="L15">
-        <f>C15-(1.28*J15)</f>
-        <v>2.4964975496895514</v>
+        <f t="shared" si="2"/>
+        <v>2.7386151600511224</v>
       </c>
       <c r="M15">
-        <f>C15+((H15*H15)/2)</f>
-        <v>2.9516602736079998</v>
+        <f t="shared" si="3"/>
+        <v>3.17690605645442</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
-        <v>0.73517319216467936</v>
+        <f>G15-MIN($G$3:$G$27)</f>
+        <v>8.4838452015521391</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
-        <v>0.69240336479365316</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="2"/>
-        <v>0.25978518627926034</v>
+        <f t="shared" si="5"/>
+        <v>1.4379918406862823E-2</v>
+      </c>
+      <c r="P15" s="7">
+        <f>O15/SUM($O$3:$O$27)</f>
+        <v>4.9724257752843228E-3</v>
       </c>
       <c r="Q15" cm="1">
-        <f t="array" ref="Q15">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q15">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R15">
-        <f>J15*J15</f>
-        <v>0.11057610941189648</v>
+        <f t="shared" si="4"/>
+        <v>9.6109153163287941E-2</v>
       </c>
       <c r="S15">
-        <f t="shared" si="3"/>
-        <v>0.11295530692795409</v>
+        <f t="shared" si="6"/>
+        <v>0.15515963055245802</v>
       </c>
       <c r="T15">
-        <f t="shared" si="4"/>
-        <v>8.7310746754168458E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.9586537908363741E-3</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V15" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z15" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA15" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB15" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -2918,101 +2924,101 @@
         <v>39</v>
       </c>
       <c r="C16">
-        <v>3.1531543320846098</v>
+        <v>2.8713940674829801</v>
       </c>
       <c r="D16">
-        <v>6.6485251271475504E-2</v>
+        <v>8.0513962590828395E-2</v>
       </c>
       <c r="E16">
-        <v>2.7632158042149899</v>
+        <v>2.5240551892314702</v>
       </c>
       <c r="F16">
-        <v>3.5430928599542399</v>
+        <v>3.2187329457345002</v>
       </c>
       <c r="G16">
-        <v>14.7953100290647</v>
+        <v>8.3989932973760109</v>
       </c>
       <c r="H16">
-        <v>0.28699999999999998</v>
+        <v>0.249</v>
       </c>
       <c r="I16">
         <v>20</v>
       </c>
       <c r="J16">
-        <f>D16*SQRT(I16+1)</f>
-        <v>0.30467369654969551</v>
+        <f t="shared" si="0"/>
+        <v>0.36896132807331394</v>
       </c>
       <c r="K16">
-        <f>C16+(1.28*J16)</f>
-        <v>3.54313666366822</v>
+        <f t="shared" si="1"/>
+        <v>3.3436645674168219</v>
       </c>
       <c r="L16">
-        <f>C16-(1.28*J16)</f>
-        <v>2.7631720005009996</v>
+        <f t="shared" si="2"/>
+        <v>2.3991235675491382</v>
       </c>
       <c r="M16">
-        <f>C16+((H16*H16)/2)</f>
-        <v>3.1943388320846098</v>
+        <f t="shared" si="3"/>
+        <v>2.9023945674829803</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
-        <v>8.3298340879371402</v>
+        <f>G16-MIN($G$3:$G$27)</f>
+        <v>1.9335173562484504</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
-        <v>1.5531003237059774E-2</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="2"/>
-        <v>5.8271302165693239E-3</v>
+        <f t="shared" si="5"/>
+        <v>0.3803137617557717</v>
+      </c>
+      <c r="P16" s="7">
+        <f>O16/SUM($O$3:$O$27)</f>
+        <v>0.131508531421654</v>
       </c>
       <c r="Q16" cm="1">
-        <f t="array" ref="Q16">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q16">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R16">
-        <f>J16*J16</f>
-        <v>9.2826061369255933E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.13613246161362361</v>
       </c>
       <c r="S16">
-        <f t="shared" si="3"/>
-        <v>0.17777241461431181</v>
+        <f t="shared" si="6"/>
+        <v>0.13712524397799847</v>
       </c>
       <c r="T16">
-        <f t="shared" si="4"/>
-        <v>2.4568967671496638E-3</v>
+        <f t="shared" si="7"/>
+        <v>4.8698169234897913E-2</v>
       </c>
       <c r="U16" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V16" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z16" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA16" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB16" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -3023,101 +3029,101 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>2.9942677627596699</v>
+        <v>3.04528424851024</v>
       </c>
       <c r="D17">
-        <v>8.7204706221326103E-2</v>
+        <v>8.2937736876238399E-2</v>
       </c>
       <c r="E17">
-        <v>2.5739987034144201</v>
+        <v>2.6178051170359802</v>
       </c>
       <c r="F17">
-        <v>3.4145368221049202</v>
+        <v>3.4727633799844999</v>
       </c>
       <c r="G17">
-        <v>17.637778069674901</v>
+        <v>18.655622630106901</v>
       </c>
       <c r="H17">
-        <v>0.30499999999999999</v>
+        <v>0.312</v>
       </c>
       <c r="I17">
         <v>20</v>
       </c>
       <c r="J17">
-        <f>D17*SQRT(I17+1)</f>
-        <v>0.39962216721561333</v>
+        <f t="shared" si="0"/>
+        <v>0.38006845720369276</v>
       </c>
       <c r="K17">
-        <f>C17+(1.28*J17)</f>
-        <v>3.505784136795655</v>
+        <f t="shared" si="1"/>
+        <v>3.5317718737309667</v>
       </c>
       <c r="L17">
-        <f>C17-(1.28*J17)</f>
-        <v>2.4827513887236847</v>
+        <f t="shared" si="2"/>
+        <v>2.5587966232895134</v>
       </c>
       <c r="M17">
-        <f>C17+((H17*H17)/2)</f>
-        <v>3.0407802627596698</v>
+        <f t="shared" si="3"/>
+        <v>3.0939562485102399</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
-        <v>11.17230212854734</v>
+        <f>G17-MIN($G$3:$G$27)</f>
+        <v>12.19014668897934</v>
       </c>
       <c r="O17">
-        <f t="shared" si="1"/>
-        <v>3.749431448327544E-3</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="2"/>
-        <v>1.4067620071941285E-3</v>
+        <f t="shared" si="5"/>
+        <v>2.2539448202194196E-3</v>
+      </c>
+      <c r="P17" s="7">
+        <f>O17/SUM($O$3:$O$27)</f>
+        <v>7.7939060591462124E-4</v>
       </c>
       <c r="Q17" cm="1">
-        <f t="array" ref="Q17">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q17">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R17">
-        <f>J17*J17</f>
-        <v>0.15969787653010362</v>
+        <f t="shared" si="4"/>
+        <v>0.14445203216119523</v>
       </c>
       <c r="S17">
-        <f t="shared" si="3"/>
-        <v>0.17871346119937226</v>
+        <f t="shared" si="6"/>
+        <v>0.17006906921314341</v>
       </c>
       <c r="T17">
-        <f t="shared" si="4"/>
-        <v>5.9470181466549966E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.2141625331321094E-4</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V17" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W17" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X17" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z17" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA17" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB17" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -3128,206 +3134,206 @@
         <v>43</v>
       </c>
       <c r="C18">
-        <v>2.7981847937637698</v>
+        <v>2.9737195728617301</v>
       </c>
       <c r="D18">
-        <v>8.8586839666225797E-2</v>
+        <v>7.8467583718088998E-2</v>
       </c>
       <c r="E18">
-        <v>2.4493404388162499</v>
+        <v>2.5948915610155598</v>
       </c>
       <c r="F18">
-        <v>3.1470291487113</v>
+        <v>3.35254758470791</v>
       </c>
       <c r="G18">
-        <v>8.1130745431805096</v>
+        <v>12.8689992655903</v>
       </c>
       <c r="H18">
-        <v>0.248</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="I18">
         <v>20</v>
       </c>
       <c r="J18">
-        <f>D18*SQRT(I18+1)</f>
-        <v>0.40595589834739626</v>
+        <f t="shared" si="0"/>
+        <v>0.35958364198842724</v>
       </c>
       <c r="K18">
-        <f>C18+(1.28*J18)</f>
-        <v>3.3178083436484371</v>
+        <f t="shared" si="1"/>
+        <v>3.4339866346069168</v>
       </c>
       <c r="L18">
-        <f>C18-(1.28*J18)</f>
-        <v>2.2785612438791025</v>
+        <f t="shared" si="2"/>
+        <v>2.5134525111165433</v>
       </c>
       <c r="M18">
-        <f>C18+((H18*H18)/2)</f>
-        <v>2.8289367937637699</v>
+        <f t="shared" si="3"/>
+        <v>3.0115320728617299</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
-        <v>1.6475986020529492</v>
+        <f>G18-MIN($G$3:$G$27)</f>
+        <v>6.4035233244627401</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
-        <v>0.43876149679391435</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="2"/>
-        <v>0.16462042643415378</v>
+        <f t="shared" si="5"/>
+        <v>4.0690457957832479E-2</v>
+      </c>
+      <c r="P18" s="7">
+        <f>O18/SUM($O$3:$O$27)</f>
+        <v>1.4070335883205503E-2</v>
       </c>
       <c r="Q18" cm="1">
-        <f t="array" ref="Q18">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q18">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R18">
-        <f>J18*J18</f>
-        <v>0.16480019140304153</v>
+        <f t="shared" si="4"/>
+        <v>0.12930039558566142</v>
       </c>
       <c r="S18">
-        <f t="shared" si="3"/>
-        <v>0.17026827057519606</v>
+        <f t="shared" si="6"/>
+        <v>0.13532666596516044</v>
       </c>
       <c r="T18">
-        <f t="shared" si="4"/>
-        <v>6.7928274801988903E-2</v>
+        <f t="shared" si="7"/>
+        <v>5.1760225061980884E-3</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V18" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W18" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X18" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y18" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z18" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA18" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB18" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
       </c>
       <c r="C19">
-        <v>3.0054507420298702</v>
+        <v>3.0462800769354499</v>
       </c>
       <c r="D19">
-        <v>8.0219225602344402E-2</v>
+        <v>7.7496247296307205E-2</v>
       </c>
       <c r="E19">
-        <v>2.6064972633133499</v>
+        <v>2.64089797145532</v>
       </c>
       <c r="F19">
-        <v>3.40440422074639</v>
+        <v>3.45166218241557</v>
       </c>
       <c r="G19">
-        <v>15.357876576931901</v>
+        <v>16.261554559713002</v>
       </c>
       <c r="H19">
-        <v>0.28999999999999998</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="I19">
         <v>20</v>
       </c>
       <c r="J19">
-        <f>D19*SQRT(I19+1)</f>
-        <v>0.3676106735134827</v>
+        <f t="shared" si="0"/>
+        <v>0.35513241931034462</v>
       </c>
       <c r="K19">
-        <f>C19+(1.28*J19)</f>
-        <v>3.475992404127128</v>
+        <f t="shared" si="1"/>
+        <v>3.5008495736526912</v>
       </c>
       <c r="L19">
-        <f>C19-(1.28*J19)</f>
-        <v>2.5349090799326124</v>
+        <f t="shared" si="2"/>
+        <v>2.5917105802182085</v>
       </c>
       <c r="M19">
-        <f>C19+((H19*H19)/2)</f>
-        <v>3.0475007420298703</v>
+        <f t="shared" si="3"/>
+        <v>3.0900880769354497</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
-        <v>8.8924006358043393</v>
+        <f>G19-MIN($G$3:$G$27)</f>
+        <v>9.7960786185854403</v>
       </c>
       <c r="O19">
-        <f t="shared" si="1"/>
-        <v>1.1723026224266339E-2</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="2"/>
-        <v>4.3984022988323886E-3</v>
+        <f t="shared" si="5"/>
+        <v>7.4611978399914663E-3</v>
+      </c>
+      <c r="P19" s="7">
+        <f>O19/SUM($O$3:$O$27)</f>
+        <v>2.5800043786314646E-3</v>
       </c>
       <c r="Q19" cm="1">
-        <f t="array" ref="Q19">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q19">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R19">
-        <f>J19*J19</f>
-        <v>0.13513760728103638</v>
+        <f t="shared" si="4"/>
+        <v>0.12611903524521842</v>
       </c>
       <c r="S19">
-        <f t="shared" si="3"/>
-        <v>0.15605182475218013</v>
+        <f t="shared" si="6"/>
+        <v>0.15051280832407163</v>
       </c>
       <c r="T19">
-        <f t="shared" si="4"/>
-        <v>1.7375182510525572E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.0009379890773688E-3</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V19" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W19" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X19" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y19" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z19" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA19" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB19" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -3338,101 +3344,101 @@
         <v>46</v>
       </c>
       <c r="C20">
-        <v>3.0342584238896602</v>
+        <v>2.83737642777028</v>
       </c>
       <c r="D20">
-        <v>7.8660458540942696E-2</v>
+        <v>8.0125491589283296E-2</v>
       </c>
       <c r="E20">
-        <v>2.6291613096096902</v>
+        <v>2.5031230699120299</v>
       </c>
       <c r="F20">
-        <v>3.4393555381696301</v>
+        <v>3.17162978562853</v>
       </c>
       <c r="G20">
-        <v>16.1791023939975</v>
+        <v>6.4654759411275604</v>
       </c>
       <c r="H20">
-        <v>0.29499999999999998</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="I20">
         <v>20</v>
       </c>
       <c r="J20">
-        <f>D20*SQRT(I20+1)</f>
-        <v>0.36046750546380552</v>
+        <f t="shared" si="0"/>
+        <v>0.36718113030343819</v>
       </c>
       <c r="K20">
-        <f>C20+(1.28*J20)</f>
-        <v>3.4956568308833313</v>
+        <f t="shared" si="1"/>
+        <v>3.307368274558681</v>
       </c>
       <c r="L20">
-        <f>C20-(1.28*J20)</f>
-        <v>2.572860016895989</v>
+        <f t="shared" si="2"/>
+        <v>2.367384580981879</v>
       </c>
       <c r="M20">
-        <f>C20+((H20*H20)/2)</f>
-        <v>3.07777092388966</v>
+        <f t="shared" si="3"/>
+        <v>2.8659369277702802</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
-        <v>9.7136264528699385</v>
+        <f>G20-MIN($G$3:$G$27)</f>
+        <v>0</v>
       </c>
       <c r="O20">
-        <f t="shared" si="1"/>
-        <v>7.7752223252751619E-3</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="2"/>
-        <v>2.9172122534907511E-3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="7">
+        <f>O20/SUM($O$3:$O$27)</f>
+        <v>0.34578956810431066</v>
       </c>
       <c r="Q20" cm="1">
-        <f t="array" ref="Q20">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q20">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R20">
-        <f>J20*J20</f>
-        <v>0.12993682249529867</v>
+        <f t="shared" si="4"/>
+        <v>0.13482198245091045</v>
       </c>
       <c r="S20">
-        <f t="shared" si="3"/>
-        <v>0.16052251912374951</v>
+        <f t="shared" si="6"/>
+        <v>0.13944137167873236</v>
       </c>
       <c r="T20">
-        <f t="shared" si="4"/>
-        <v>1.1687887223031902E-3</v>
+        <f t="shared" si="7"/>
+        <v>0.12912421977052674</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V20" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W20" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X20" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y20" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z20" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA20" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB20" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -3443,101 +3449,101 @@
         <v>48</v>
       </c>
       <c r="C21">
-        <v>2.83737642777028</v>
+        <v>3.0342584238896602</v>
       </c>
       <c r="D21">
-        <v>8.0125491589283296E-2</v>
+        <v>7.8660458540942696E-2</v>
       </c>
       <c r="E21">
-        <v>2.5031230699120299</v>
+        <v>2.6291613096096902</v>
       </c>
       <c r="F21">
-        <v>3.17162978562853</v>
+        <v>3.4393555381696301</v>
       </c>
       <c r="G21">
-        <v>6.4654759411275604</v>
+        <v>16.1791023939975</v>
       </c>
       <c r="H21">
-        <v>0.23899999999999999</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="I21">
         <v>20</v>
       </c>
       <c r="J21">
-        <f>D21*SQRT(I21+1)</f>
-        <v>0.36718113030343819</v>
+        <f t="shared" si="0"/>
+        <v>0.36046750546380552</v>
       </c>
       <c r="K21">
-        <f>C21+(1.28*J21)</f>
-        <v>3.307368274558681</v>
+        <f t="shared" si="1"/>
+        <v>3.4956568308833313</v>
       </c>
       <c r="L21">
-        <f>C21-(1.28*J21)</f>
-        <v>2.367384580981879</v>
+        <f t="shared" si="2"/>
+        <v>2.572860016895989</v>
       </c>
       <c r="M21">
-        <f>C21+((H21*H21)/2)</f>
-        <v>2.8659369277702802</v>
+        <f t="shared" si="3"/>
+        <v>3.07777092388966</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>G21-MIN($G$3:$G$27)</f>
+        <v>9.7136264528699385</v>
       </c>
       <c r="O21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="2"/>
-        <v>0.37519341974411158</v>
+        <f t="shared" si="5"/>
+        <v>7.7752223252751619E-3</v>
+      </c>
+      <c r="P21" s="7">
+        <f>O21/SUM($O$3:$O$27)</f>
+        <v>2.6885907697718923E-3</v>
       </c>
       <c r="Q21" cm="1">
-        <f t="array" ref="Q21">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q21">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R21">
-        <f>J21*J21</f>
-        <v>0.13482198245091045</v>
+        <f t="shared" si="4"/>
+        <v>0.12993682249529867</v>
       </c>
       <c r="S21">
-        <f t="shared" si="3"/>
-        <v>0.13618701356805704</v>
+        <f t="shared" si="6"/>
+        <v>0.15063479724952861</v>
       </c>
       <c r="T21">
-        <f t="shared" si="4"/>
-        <v>0.13845959634822722</v>
+        <f t="shared" si="7"/>
+        <v>1.0434877545603138E-3</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V21" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z21" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA21" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB21" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -3548,101 +3554,101 @@
         <v>50</v>
       </c>
       <c r="C22">
-        <v>3.0456718439112298</v>
+        <v>2.9956593778892202</v>
       </c>
       <c r="D22">
-        <v>7.3079122065971905E-2</v>
+        <v>7.1205950928276696E-2</v>
       </c>
       <c r="E22">
-        <v>2.6599636494517802</v>
+        <v>2.63783943263206</v>
       </c>
       <c r="F22">
-        <v>3.4313800383706701</v>
+        <v>3.3534793231463902</v>
       </c>
       <c r="G22">
-        <v>14.001036501874401</v>
+        <v>10.388460539532099</v>
       </c>
       <c r="H22">
-        <v>0.28199999999999997</v>
+        <v>0.26</v>
       </c>
       <c r="I22">
         <v>20</v>
       </c>
       <c r="J22">
-        <f>D22*SQRT(I22+1)</f>
-        <v>0.33489060858823383</v>
+        <f t="shared" si="0"/>
+        <v>0.32630666006013903</v>
       </c>
       <c r="K22">
-        <f>C22+(1.28*J22)</f>
-        <v>3.4743318229041691</v>
+        <f t="shared" si="1"/>
+        <v>3.4133319027661981</v>
       </c>
       <c r="L22">
-        <f>C22-(1.28*J22)</f>
-        <v>2.6170118649182905</v>
+        <f t="shared" si="2"/>
+        <v>2.5779868530122423</v>
       </c>
       <c r="M22">
-        <f>C22+((H22*H22)/2)</f>
-        <v>3.0854338439112299</v>
+        <f t="shared" si="3"/>
+        <v>3.02945937788922</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
-        <v>7.5355605607468403</v>
+        <f>G22-MIN($G$3:$G$27)</f>
+        <v>3.9229845984045388</v>
       </c>
       <c r="O22">
-        <f t="shared" si="1"/>
-        <v>2.3103289237127397E-2</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="2"/>
-        <v>8.6682020962151555E-3</v>
+        <f t="shared" si="5"/>
+        <v>0.14064837477669873</v>
+      </c>
+      <c r="P22" s="7">
+        <f>O22/SUM($O$3:$O$27)</f>
+        <v>4.8634740768607874E-2</v>
       </c>
       <c r="Q22" cm="1">
-        <f t="array" ref="Q22">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q22">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R22">
-        <f>J22*J22</f>
-        <v>0.11215171972059763</v>
+        <f t="shared" si="4"/>
+        <v>0.10647603639960314</v>
       </c>
       <c r="S22">
-        <f t="shared" si="3"/>
-        <v>0.1454764371267914</v>
+        <f t="shared" si="6"/>
+        <v>0.11560705458663928</v>
       </c>
       <c r="T22">
-        <f t="shared" si="4"/>
-        <v>3.3061713358902654E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.6536316409500398E-2</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V22" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W22" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X22" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y22" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z22" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA22" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB22" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -3653,101 +3659,101 @@
         <v>52</v>
       </c>
       <c r="C23">
-        <v>3.0042410340982499</v>
+        <v>3.0456718439112298</v>
       </c>
       <c r="D23">
-        <v>8.8788297480901099E-2</v>
+        <v>7.3079122065971905E-2</v>
       </c>
       <c r="E23">
-        <v>2.5738469184067001</v>
+        <v>2.6599636494517802</v>
       </c>
       <c r="F23">
-        <v>3.4346351497897998</v>
+        <v>3.4313800383706701</v>
       </c>
       <c r="G23">
-        <v>18.754591677935998</v>
+        <v>14.001036501874401</v>
       </c>
       <c r="H23">
-        <v>0.312</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="I23">
         <v>20</v>
       </c>
       <c r="J23">
-        <f>D23*SQRT(I23+1)</f>
-        <v>0.40687909403248618</v>
+        <f t="shared" si="0"/>
+        <v>0.33489060858823383</v>
       </c>
       <c r="K23">
-        <f>C23+(1.28*J23)</f>
-        <v>3.5250462744598323</v>
+        <f t="shared" si="1"/>
+        <v>3.4743318229041691</v>
       </c>
       <c r="L23">
-        <f>C23-(1.28*J23)</f>
-        <v>2.4834357937366676</v>
+        <f t="shared" si="2"/>
+        <v>2.6170118649182905</v>
       </c>
       <c r="M23">
-        <f>C23+((H23*H23)/2)</f>
-        <v>3.0529130340982498</v>
+        <f t="shared" si="3"/>
+        <v>3.0854338439112299</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
-        <v>12.289115736808437</v>
+        <f>G23-MIN($G$3:$G$27)</f>
+        <v>7.5355605607468403</v>
       </c>
       <c r="O23">
-        <f t="shared" si="1"/>
-        <v>2.1451241094249166E-3</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="2"/>
-        <v>8.0483645039067632E-4</v>
+        <f t="shared" si="5"/>
+        <v>2.3103289237127397E-2</v>
+      </c>
+      <c r="P23" s="7">
+        <f>O23/SUM($O$3:$O$27)</f>
+        <v>7.9888764070952523E-3</v>
       </c>
       <c r="Q23" cm="1">
-        <f t="array" ref="Q23">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q23">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R23">
-        <f>J23*J23</f>
-        <v>0.16555059716069673</v>
+        <f t="shared" si="4"/>
+        <v>0.11215171972059763</v>
       </c>
       <c r="S23">
-        <f t="shared" si="3"/>
-        <v>0.18805953169014325</v>
+        <f t="shared" si="6"/>
+        <v>0.13511331135288396</v>
       </c>
       <c r="T23">
-        <f t="shared" si="4"/>
-        <v>3.490240166270529E-4</v>
+        <f t="shared" si="7"/>
+        <v>2.9365322264865621E-3</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V23" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X23" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y23" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z23" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA23" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB23" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
@@ -3758,101 +3764,101 @@
         <v>54</v>
       </c>
       <c r="C24">
-        <v>2.8193838788160899</v>
+        <v>2.8394337325650598</v>
       </c>
       <c r="D24">
-        <v>9.0455852266125306E-2</v>
+        <v>8.7839408646482306E-2</v>
       </c>
       <c r="E24">
-        <v>2.4575567966089</v>
+        <v>2.47887317266358</v>
       </c>
       <c r="F24">
-        <v>3.1812109610232802</v>
+        <v>3.1999942924665499</v>
       </c>
       <c r="G24">
-        <v>9.8843698377703504</v>
+        <v>9.8655154259353903</v>
       </c>
       <c r="H24">
-        <v>0.25800000000000001</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="I24">
         <v>20</v>
       </c>
       <c r="J24">
-        <f>D24*SQRT(I24+1)</f>
-        <v>0.41452079006126197</v>
+        <f t="shared" si="0"/>
+        <v>0.40253073912266368</v>
       </c>
       <c r="K24">
-        <f>C24+(1.28*J24)</f>
-        <v>3.3499704900945053</v>
+        <f t="shared" si="1"/>
+        <v>3.3546730786420693</v>
       </c>
       <c r="L24">
-        <f>C24-(1.28*J24)</f>
-        <v>2.2887972675376744</v>
+        <f t="shared" si="2"/>
+        <v>2.3241943864880503</v>
       </c>
       <c r="M24">
-        <f>C24+((H24*H24)/2)</f>
-        <v>2.8526658788160897</v>
+        <f t="shared" si="3"/>
+        <v>2.8724582325650596</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
-        <v>3.41889389664279</v>
+        <f>G24-MIN($G$3:$G$27)</f>
+        <v>3.4000394848078299</v>
       </c>
       <c r="O24">
-        <f t="shared" si="1"/>
-        <v>0.18096584841279378</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="2"/>
-        <v>6.7897195522890613E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.18267991747641554</v>
+      </c>
+      <c r="P24" s="7">
+        <f>O24/SUM($O$3:$O$27)</f>
+        <v>6.316880976550085E-2</v>
       </c>
       <c r="Q24" cm="1">
-        <f t="array" ref="Q24">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q24">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R24">
-        <f>J24*J24</f>
-        <v>0.17182748539301282</v>
+        <f t="shared" si="4"/>
+        <v>0.16203099593863793</v>
       </c>
       <c r="S24">
-        <f t="shared" si="3"/>
-        <v>0.17434927029287026</v>
+        <f t="shared" si="6"/>
+        <v>0.16580645742103758</v>
       </c>
       <c r="T24">
-        <f t="shared" si="4"/>
-        <v>2.8350577067368883E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.5721921834220781E-2</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V24" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z24" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA24" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB24" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -3863,101 +3869,101 @@
         <v>56</v>
       </c>
       <c r="C25">
-        <v>3.0107486363378402</v>
+        <v>3.06723327928092</v>
       </c>
       <c r="D25">
-        <v>8.1659419621454898E-2</v>
+        <v>7.9698606097820104E-2</v>
       </c>
       <c r="E25">
-        <v>2.6038462270871499</v>
+        <v>2.64315954686449</v>
       </c>
       <c r="F25">
-        <v>3.4176510455885198</v>
+        <v>3.4913070116973599</v>
       </c>
       <c r="G25">
-        <v>16.272179313968898</v>
+        <v>18.3879544296306</v>
       </c>
       <c r="H25">
-        <v>0.29599999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="I25">
         <v>20</v>
       </c>
       <c r="J25">
-        <f>D25*SQRT(I25+1)</f>
-        <v>0.37421047162147925</v>
+        <f t="shared" si="0"/>
+        <v>0.36522489522572971</v>
       </c>
       <c r="K25">
-        <f>C25+(1.28*J25)</f>
-        <v>3.4897380400133335</v>
+        <f t="shared" si="1"/>
+        <v>3.5347211451698541</v>
       </c>
       <c r="L25">
-        <f>C25-(1.28*J25)</f>
-        <v>2.5317592326623468</v>
+        <f t="shared" si="2"/>
+        <v>2.5997454133919859</v>
       </c>
       <c r="M25">
-        <f>C25+((H25*H25)/2)</f>
-        <v>3.05455663633784</v>
+        <f t="shared" si="3"/>
+        <v>3.11528327928092</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
-        <v>9.8067033728413371</v>
+        <f>G25-MIN($G$3:$G$27)</f>
+        <v>11.922478488503039</v>
       </c>
       <c r="O25">
-        <f t="shared" si="1"/>
-        <v>7.421666239593643E-3</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="2"/>
-        <v>2.7845603366325601E-3</v>
+        <f t="shared" si="5"/>
+        <v>2.576716811147703E-3</v>
+      </c>
+      <c r="P25" s="7">
+        <f>O25/SUM($O$3:$O$27)</f>
+        <v>8.9100179325388087E-4</v>
       </c>
       <c r="Q25" cm="1">
-        <f t="array" ref="Q25">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q25">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R25">
-        <f>J25*J25</f>
-        <v>0.14003347707116992</v>
+        <f t="shared" si="4"/>
+        <v>0.13338922409264525</v>
       </c>
       <c r="S25">
-        <f t="shared" si="3"/>
-        <v>0.1630382915898495</v>
+        <f t="shared" si="6"/>
+        <v>0.16628802379081736</v>
       </c>
       <c r="T25">
-        <f t="shared" si="4"/>
-        <v>1.1243497837244653E-3</v>
+        <f t="shared" si="7"/>
+        <v>3.6333652995815361E-4</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V25" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W25" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y25" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z25" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA25" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB25" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
@@ -3968,101 +3974,101 @@
         <v>58</v>
       </c>
       <c r="C26">
-        <v>3.06723327928092</v>
+        <v>3.0033452638474398</v>
       </c>
       <c r="D26">
-        <v>7.9698606097820104E-2</v>
+        <v>7.4815856291891802E-2</v>
       </c>
       <c r="E26">
-        <v>2.64315954686449</v>
+        <v>2.6272309416606698</v>
       </c>
       <c r="F26">
-        <v>3.4913070116973599</v>
+        <v>3.3794595860342098</v>
       </c>
       <c r="G26">
-        <v>18.3879544296306</v>
+        <v>12.6835778126331</v>
       </c>
       <c r="H26">
-        <v>0.31</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="I26">
         <v>20</v>
       </c>
       <c r="J26">
-        <f>D26*SQRT(I26+1)</f>
-        <v>0.36522489522572971</v>
+        <f t="shared" si="0"/>
+        <v>0.3428493246405323</v>
       </c>
       <c r="K26">
-        <f>C26+(1.28*J26)</f>
-        <v>3.5347211451698541</v>
+        <f t="shared" si="1"/>
+        <v>3.4421923993873214</v>
       </c>
       <c r="L26">
-        <f>C26-(1.28*J26)</f>
-        <v>2.5997454133919859</v>
+        <f t="shared" si="2"/>
+        <v>2.5644981283075583</v>
       </c>
       <c r="M26">
-        <f>C26+((H26*H26)/2)</f>
-        <v>3.11528327928092</v>
+        <f t="shared" si="3"/>
+        <v>3.0408832638474399</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
-        <v>11.922478488503039</v>
+        <f>G26-MIN($G$3:$G$27)</f>
+        <v>6.2181018715055396</v>
       </c>
       <c r="O26">
-        <f t="shared" si="1"/>
-        <v>2.576716811147703E-3</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="2"/>
-        <v>9.6676719208664888E-4</v>
+        <f t="shared" si="5"/>
+        <v>4.464330460528821E-2</v>
+      </c>
+      <c r="P26" s="7">
+        <f>O26/SUM($O$3:$O$27)</f>
+        <v>1.5437189018211794E-2</v>
       </c>
       <c r="Q26" cm="1">
-        <f t="array" ref="Q26">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q26">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R26">
-        <f>J26*J26</f>
-        <v>0.13338922409264525</v>
+        <f t="shared" si="4"/>
+        <v>0.11754565940646911</v>
       </c>
       <c r="S26">
-        <f t="shared" si="3"/>
-        <v>0.17850299428426353</v>
+        <f t="shared" si="6"/>
+        <v>0.12899043271229479</v>
       </c>
       <c r="T26">
-        <f t="shared" si="4"/>
-        <v>4.0845541376487832E-4</v>
+        <f t="shared" si="7"/>
+        <v>5.5443031904264008E-3</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V26" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W26" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X26" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y26" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z26" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA26" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB26" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -4073,206 +4079,101 @@
         <v>60</v>
       </c>
       <c r="C27">
-        <v>2.8394337325650598</v>
+        <v>3.0596468301649602</v>
       </c>
       <c r="D27">
-        <v>8.7839408646482306E-2</v>
+        <v>7.6116235704180094E-2</v>
       </c>
       <c r="E27">
-        <v>2.47887317266358</v>
+        <v>2.6545711548775399</v>
       </c>
       <c r="F27">
-        <v>3.1999942924665499</v>
+        <v>3.4647225054523898</v>
       </c>
       <c r="G27">
-        <v>9.8655154259353903</v>
+        <v>16.280094244974499</v>
       </c>
       <c r="H27">
-        <v>0.25700000000000001</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="I27">
         <v>20</v>
       </c>
       <c r="J27">
-        <f>D27*SQRT(I27+1)</f>
-        <v>0.40253073912266368</v>
+        <f t="shared" si="0"/>
+        <v>0.34880841172950561</v>
       </c>
       <c r="K27">
-        <f>C27+(1.28*J27)</f>
-        <v>3.3546730786420693</v>
+        <f t="shared" si="1"/>
+        <v>3.5061215971787272</v>
       </c>
       <c r="L27">
-        <f>C27-(1.28*J27)</f>
-        <v>2.3241943864880503</v>
+        <f t="shared" si="2"/>
+        <v>2.6131720631511932</v>
       </c>
       <c r="M27">
-        <f>C27+((H27*H27)/2)</f>
-        <v>2.8724582325650596</v>
+        <f t="shared" si="3"/>
+        <v>3.10345483016496</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
-        <v>3.4000394848078299</v>
+        <f>G27-MIN($G$3:$G$27)</f>
+        <v>9.8146183038469381</v>
       </c>
       <c r="O27">
-        <f t="shared" si="1"/>
-        <v>0.18267991747641554</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="2"/>
-        <v>6.8540302956548449E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.3923532922232854E-3</v>
+      </c>
+      <c r="P27" s="7">
+        <f>O27/SUM($O$3:$O$27)</f>
+        <v>2.5561986521923691E-3</v>
       </c>
       <c r="Q27" cm="1">
-        <f t="array" ref="Q27">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
+        <f t="array" ref="Q27">SUM($M$3:$M$27*$P$3:$P$27)</f>
+        <v>2.9339030165780224</v>
       </c>
       <c r="R27">
-        <f>J27*J27</f>
-        <v>0.16203099593863793</v>
+        <f t="shared" si="4"/>
+        <v>0.1216673080932603</v>
       </c>
       <c r="S27">
-        <f t="shared" si="3"/>
-        <v>0.16295667794641169</v>
+        <f t="shared" si="6"/>
+        <v>0.15041512558387996</v>
       </c>
       <c r="T27">
-        <f t="shared" si="4"/>
-        <v>2.7668276110176089E-2</v>
+        <f t="shared" si="7"/>
+        <v>9.9138046475490257E-4</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
+        <f>SUM($T$3:$T$27)</f>
+        <v>0.36355664729115073</v>
       </c>
       <c r="V27" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
+        <f t="shared" si="8"/>
+        <v>0.13217343578958218</v>
       </c>
       <c r="W27" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
+        <f t="shared" si="9"/>
+        <v>0.36355664729115073</v>
       </c>
       <c r="X27" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
+        <f t="shared" si="10"/>
+        <v>2.4685505080453494</v>
       </c>
       <c r="Y27" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
+        <f t="shared" si="11"/>
+        <v>3.3992555251106955</v>
       </c>
       <c r="Z27" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
+        <f t="shared" si="12"/>
+        <v>18.800867578769648</v>
       </c>
       <c r="AA27" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
+        <f t="shared" si="13"/>
+        <v>11.805322723691653</v>
       </c>
       <c r="AB27" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28">
-        <v>3.0596468301649602</v>
-      </c>
-      <c r="D28">
-        <v>7.6116235704180094E-2</v>
-      </c>
-      <c r="E28">
-        <v>2.6545711548775399</v>
-      </c>
-      <c r="F28">
-        <v>3.4647225054523898</v>
-      </c>
-      <c r="G28">
-        <v>16.280094244974499</v>
-      </c>
-      <c r="H28">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="I28">
-        <v>20</v>
-      </c>
-      <c r="J28">
-        <f>D28*SQRT(I28+1)</f>
-        <v>0.34880841172950561</v>
-      </c>
-      <c r="K28">
-        <f>C28+(1.28*J28)</f>
-        <v>3.5061215971787272</v>
-      </c>
-      <c r="L28">
-        <f>C28-(1.28*J28)</f>
-        <v>2.6131720631511932</v>
-      </c>
-      <c r="M28">
-        <f>C28+((H28*H28)/2)</f>
-        <v>3.10345483016496</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="0"/>
-        <v>9.8146183038469381</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="1"/>
-        <v>7.3923532922232854E-3</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="2"/>
-        <v>2.7735623116658965E-3</v>
-      </c>
-      <c r="Q28" cm="1">
-        <f t="array" ref="Q28">SUM($M$3:$M$28*$P$3:$P$28)</f>
-        <v>2.9028832552893529</v>
-      </c>
-      <c r="R28">
-        <f>J28*J28</f>
-        <v>0.1216673080932603</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="3"/>
-        <v>0.16189626474134161</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="4"/>
-        <v>1.1159798208054709E-3</v>
-      </c>
-      <c r="U28" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37872016590899321</v>
-      </c>
-      <c r="V28" s="3">
-        <f t="shared" si="6"/>
-        <v>0.14342896406613534</v>
-      </c>
-      <c r="W28" s="2">
-        <f t="shared" si="7"/>
-        <v>0.37872016590899321</v>
-      </c>
-      <c r="X28" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4181214429258415</v>
-      </c>
-      <c r="Y28" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3876450676528642</v>
-      </c>
-      <c r="Z28" s="4">
-        <f t="shared" si="10"/>
-        <v>18.226621685162741</v>
-      </c>
-      <c r="AA28" s="4">
-        <f t="shared" si="11"/>
-        <v>11.224753157078837</v>
-      </c>
-      <c r="AB28" s="4">
-        <f t="shared" si="12"/>
-        <v>29.596173154555135</v>
+        <f t="shared" si="14"/>
+        <v>29.941800828965139</v>
       </c>
     </row>
   </sheetData>
